--- a/config_1.12/item_config.xlsx
+++ b/config_1.12/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="943">
   <si>
     <t>id|行号</t>
   </si>
@@ -3542,10 +3542,6 @@
   </si>
   <si>
     <t>欢庆嘉年华活动掉落道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_sd_icon_lh_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4191,8 +4187,8 @@
   <dimension ref="A1:Q294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4250,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -8532,7 +8528,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D131" s="39">
         <v>-1</v>
@@ -8541,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G131" s="39">
         <v>0</v>
@@ -10301,7 +10297,7 @@
         <v>639</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -14077,7 +14073,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14086,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14095,10 +14091,10 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -14109,7 +14105,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D293" s="2">
         <v>-1</v>
@@ -14118,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14127,10 +14123,10 @@
         <v>33</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J293" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -14141,7 +14137,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D294" s="2">
         <v>-1</v>
@@ -14150,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14159,10 +14155,10 @@
         <v>33</v>
       </c>
       <c r="I294" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="J294" s="12" t="s">
         <v>939</v>
-      </c>
-      <c r="J294" s="12" t="s">
-        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.12/item_config.xlsx
+++ b/config_1.12/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="942">
   <si>
     <t>id|行号</t>
   </si>
@@ -3537,14 +3537,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢庆嘉年华活动掉落道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3594,6 +3586,10 @@
   </si>
   <si>
     <t>ty_lb1_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼掉落道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4186,9 +4182,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -8528,7 +8524,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D131" s="39">
         <v>-1</v>
@@ -8545,11 +8541,9 @@
       <c r="H131" s="39">
         <v>1</v>
       </c>
-      <c r="I131" s="40" t="s">
-        <v>928</v>
-      </c>
+      <c r="I131" s="40"/>
       <c r="J131" s="40" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -10297,7 +10291,7 @@
         <v>639</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -14073,7 +14067,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14082,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14091,10 +14085,10 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -14105,7 +14099,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D293" s="2">
         <v>-1</v>
@@ -14114,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14123,10 +14117,10 @@
         <v>33</v>
       </c>
       <c r="I293" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="J293" s="12" t="s">
         <v>937</v>
-      </c>
-      <c r="J293" s="12" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -14137,7 +14131,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D294" s="2">
         <v>-1</v>
@@ -14146,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14155,10 +14149,10 @@
         <v>33</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J294" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.12/item_config.xlsx
+++ b/config_1.12/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="947">
   <si>
     <t>id|行号</t>
   </si>
@@ -3577,10 +3577,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ty_lb1_icon_box2_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_lb1_icon_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3589,7 +3585,77 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>鱼掉落道具</t>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢庆嘉年华活动掉落道具</t>
+  </si>
+  <si>
+    <t>礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"act_ty_lb1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"prop_hqjnh_csbox"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_icon_bx2_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"act_ty_lb1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"prop_hqjnh_xybox"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"act_ty_lb1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"prop_hqjnh_ssbox"</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4182,9 +4248,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L294" sqref="L294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8541,7 +8607,9 @@
       <c r="H131" s="39">
         <v>1</v>
       </c>
-      <c r="I131" s="40"/>
+      <c r="I131" s="40" t="s">
+        <v>942</v>
+      </c>
       <c r="J131" s="40" t="s">
         <v>941</v>
       </c>
@@ -8572,7 +8640,7 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>467</v>
+        <v>940</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>468</v>
@@ -13963,7 +14031,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -13995,7 +14063,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -14027,7 +14095,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="34">
         <v>290</v>
       </c>
@@ -14059,7 +14127,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="11">
         <v>291</v>
       </c>
@@ -14076,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14090,8 +14158,14 @@
       <c r="J292" s="12" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L292" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="O292" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -14108,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14122,8 +14196,14 @@
       <c r="J293" s="12" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L293" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="O293" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14140,7 +14220,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14153,6 +14233,12 @@
       </c>
       <c r="J294" s="12" t="s">
         <v>937</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="O294" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
